--- a/parabolic/2025/08/15/parabolic.xlsx
+++ b/parabolic/2025/08/15/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" t="n">
-        <v>194000</v>
+        <v>433100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D3" t="n">
-        <v>132400</v>
+        <v>165200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>264A</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>827</v>
+        <v>370</v>
       </c>
       <c r="D4" t="n">
-        <v>926000</v>
+        <v>114400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>264A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>940</v>
+        <v>807</v>
       </c>
       <c r="D5" t="n">
-        <v>113900</v>
+        <v>1499800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D6" t="n">
-        <v>926000</v>
+        <v>167400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>203</v>
+        <v>965</v>
       </c>
       <c r="D7" t="n">
-        <v>211200</v>
+        <v>128700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>207</v>
+        <v>943</v>
       </c>
       <c r="D8" t="n">
-        <v>4143500</v>
+        <v>1243000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8714</t>
+          <t>7707</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>679</v>
+        <v>211</v>
       </c>
       <c r="D9" t="n">
-        <v>699100</v>
+        <v>327400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>7779</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,62 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>547</v>
+        <v>205</v>
       </c>
       <c r="D10" t="n">
-        <v>982700</v>
+        <v>6523100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>678</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1323600</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>528</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1610100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/15/parabolic.xlsx
+++ b/parabolic/2025/08/15/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>433100</v>
+        <v>533100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>194A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>582</v>
+        <v>838</v>
       </c>
       <c r="D3" t="n">
-        <v>165200</v>
+        <v>110000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>2215</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>370</v>
+        <v>582</v>
       </c>
       <c r="D4" t="n">
-        <v>114400</v>
+        <v>192700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>264A</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>807</v>
+        <v>376</v>
       </c>
       <c r="D5" t="n">
-        <v>1499800</v>
+        <v>140300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>264A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>959</v>
+        <v>794</v>
       </c>
       <c r="D6" t="n">
-        <v>167400</v>
+        <v>1734200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>965</v>
+        <v>548</v>
       </c>
       <c r="D7" t="n">
-        <v>128700</v>
+        <v>367100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>1243000</v>
+        <v>104200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>211</v>
+        <v>970</v>
       </c>
       <c r="D9" t="n">
-        <v>327400</v>
+        <v>211400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>205</v>
+        <v>976</v>
       </c>
       <c r="D10" t="n">
-        <v>6523100</v>
+        <v>166500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8714</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>678</v>
+        <v>938</v>
       </c>
       <c r="D11" t="n">
-        <v>1323600</v>
+        <v>1397700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>7707</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,108 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>528</v>
+        <v>213</v>
       </c>
       <c r="D12" t="n">
-        <v>1610100</v>
+        <v>382300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>248</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3937800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>210</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8481000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>677</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1656600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>518</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2037500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/15/parabolic.xlsx
+++ b/parabolic/2025/08/15/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>533100</v>
+        <v>589400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>838</v>
       </c>
       <c r="D3" t="n">
-        <v>110000</v>
+        <v>146800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D4" t="n">
-        <v>192700</v>
+        <v>223800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D5" t="n">
-        <v>140300</v>
+        <v>179900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D6" t="n">
-        <v>1734200</v>
+        <v>2054300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>296A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>548</v>
+        <v>650</v>
       </c>
       <c r="D7" t="n">
-        <v>367100</v>
+        <v>117300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4346</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>355</v>
       </c>
       <c r="D8" t="n">
-        <v>104200</v>
+        <v>310900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>970</v>
+        <v>941</v>
       </c>
       <c r="D9" t="n">
-        <v>211400</v>
+        <v>581600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>976</v>
+        <v>548</v>
       </c>
       <c r="D10" t="n">
-        <v>166500</v>
+        <v>487400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>938</v>
+        <v>985</v>
       </c>
       <c r="D11" t="n">
-        <v>1397700</v>
+        <v>205800</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>213</v>
+        <v>995</v>
       </c>
       <c r="D12" t="n">
-        <v>382300</v>
+        <v>135900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>248</v>
+        <v>971</v>
       </c>
       <c r="D13" t="n">
-        <v>3937800</v>
+        <v>253400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>968</v>
       </c>
       <c r="D14" t="n">
-        <v>8481000</v>
+        <v>217400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8714</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>677</v>
+        <v>960</v>
       </c>
       <c r="D15" t="n">
-        <v>1656600</v>
+        <v>1648600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8746</t>
+          <t>7325</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,131 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>518</v>
+        <v>864</v>
       </c>
       <c r="D16" t="n">
-        <v>2037500</v>
+        <v>109900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7707</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>212</v>
+      </c>
+      <c r="D17" t="n">
+        <v>639100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4497100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9859100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>681</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2230000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8746</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>524</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2273700</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
